--- a/Document/전투방.xlsx
+++ b/Document/전투방.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">1. 전투 미션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t xml:space="preserve">4. UI 표기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 방의 미션을 완료 하게 되면 방 가운데 상자 오브젝트를 불러낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 상자에서는 장비 아이템을 획득 할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,22 +687,25 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -698,7 +713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -706,7 +721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>2</v>
       </c>
@@ -714,9 +729,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">

--- a/Document/전투방.xlsx
+++ b/Document/전투방.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="테이블" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Document/전투방.xlsx
+++ b/Document/전투방.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="테이블" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">1. 전투 미션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타임 어택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 플레이어가 방 입장 시 방에 따라 미션이 부여 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +146,14 @@
   </si>
   <si>
     <t>상자 Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버티기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 시간 동안 생존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +615,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,9 +676,11 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -695,23 +700,23 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -719,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -727,27 +732,27 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
